--- a/protobuff/backup/Privilege/pvePrivilege.xlsx
+++ b/protobuff/backup/Privilege/pvePrivilege.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\server\protobuff\backup\Privilege\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="480" windowWidth="30820" windowHeight="18140" tabRatio="500"/>
+    <workbookView xWindow="5355" yWindow="480" windowWidth="30825" windowHeight="18135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pvePrivilegeProperties" sheetId="3" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <author>dragon li</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>vip1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,183 +163,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日试炼塔重置次数已用完，{buyCharge}可以增加购买次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日扫荡时间减少已用完，{buyCharge}可以减少等待时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可重置试炼塔次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>减少试炼塔扫荡CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日试炼塔重置次数已用完，大神，您已经无法再增加购买次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日试炼塔扫荡时间减免已用完，大神，您已经无法再减免更多时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxResetCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>monthNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthVip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万仙阵可重置次数</t>
+  </si>
+  <si>
+    <t>无尽战火积分增加x%（万分比）</t>
+  </si>
+  <si>
+    <t>无尽战火可重置次数</t>
+  </si>
+  <si>
+    <t>聚宝之地挑战cd减少x秒</t>
+  </si>
+  <si>
+    <t>聚宝之地可重置次数</t>
+  </si>
+  <si>
+    <t>炼气山谷挑战cd减少x秒</t>
+  </si>
+  <si>
+    <t>炼气山谷可重置次数</t>
+  </si>
+  <si>
+    <t>生存幻境挑战cd减少x秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生存幻境可重置次数</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warfareRewardAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warfareResetCnt</t>
+  </si>
+  <si>
+    <t>treasureTimeDec</t>
+  </si>
+  <si>
+    <t>treasureResetCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expTimeDec</t>
+  </si>
+  <si>
+    <t>expResetCnt</t>
+  </si>
+  <si>
+    <t>survivalTimeDec</t>
+  </si>
+  <si>
+    <t>survivalResetCnt</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxResetCount</t>
+  </si>
+  <si>
+    <t>arrayMaxResetCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefEnum(cs:Privilege.PVEPrivilegeNames,java:com.rwproto.PrivilegeProtos.PVEPrivilegeNames)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存幻境可重置次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>vip2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthNormal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthVip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万仙阵可重置次数</t>
-  </si>
-  <si>
-    <t>无尽战火积分增加x%（万分比）</t>
+  </si>
+  <si>
+    <t>可重置封神台次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日封神台重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日封神台重置次数已用完，大神，您已经无法再增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日万仙阵重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日万仙阵重置次数已用完，大神，您已经无法再增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日无尽战火重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日无尽战火重置次数已用完，大神，您已经无法再增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日聚宝之地重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日聚宝之地重置次数已用完，大神，您已经无法再增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日炼气山谷重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日炼气山谷重置次数已用完，大神，您已经无法再增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日生存幻境重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日生存幻境重置次数已用完，大神，您已经无法再增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无尽战火可重置次数</t>
-  </si>
-  <si>
-    <t>聚宝之地挑战cd减少x秒</t>
-  </si>
-  <si>
-    <t>聚宝之地可重置次数</t>
-  </si>
-  <si>
-    <t>炼气山谷挑战cd减少x秒</t>
-  </si>
-  <si>
-    <t>炼气山谷可重置次数</t>
-  </si>
-  <si>
-    <t>生存幻境挑战cd减少x秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 生存幻境可重置次数</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warfareRewardAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warfareResetCnt</t>
-  </si>
-  <si>
-    <t>treasureTimeDec</t>
-  </si>
-  <si>
-    <t>treasureResetCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expTimeDec</t>
-  </si>
-  <si>
-    <t>expResetCnt</t>
-  </si>
-  <si>
-    <t>survivalTimeDec</t>
-  </si>
-  <si>
-    <t>survivalResetCnt</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级到VIP可减少竞技场挑战cd时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级到VIP可减少竞技场挑战cd时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级到VIP可增加购买竞技场门票次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级到VIP可增加购买竞技场门票次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxResetCount</t>
-  </si>
-  <si>
-    <t>arrayMaxResetCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefEnum(cs:Privilege.PVEPrivilegeNames,java:com.rwproto.PrivilegeProtos.PVEPrivilegeNames)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,8 +436,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,7 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +518,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,19 +526,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -518,25 +564,32 @@
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -864,317 +917,273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>99</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>99</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>99</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C10">
-        <v>120</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>120</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14">
-        <v>120</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
       <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,223 +1202,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,214 +1413,352 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>60</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>60</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>60</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>90</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>90</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>90</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>120</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>120</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-      <c r="L22">
-        <v>120</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/protobuff/backup/Privilege/pvePrivilege.xlsx
+++ b/protobuff/backup/Privilege/pvePrivilege.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\server\protobuff\backup\Privilege\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="480" windowWidth="30825" windowHeight="18135" tabRatio="500"/>
+    <workbookView xWindow="5360" yWindow="480" windowWidth="30820" windowHeight="18140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pvePrivilegeProperties" sheetId="3" r:id="rId1"/>
@@ -30,7 +25,7 @@
     <author>dragon li</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RefEnum(cs:Privilege.PVEPrivilegeNames,java:com.rwproto.PrivilegeProtos.PVEPrivilegeNames)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生存幻境可重置次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +341,10 @@
   </si>
   <si>
     <t>无尽战火可重置次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefEnum(cs:Privilege.PvePrivilegeNames,java:com.rwproto.PrivilegeProtos.PvePrivilegeNames)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +542,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="32">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -564,21 +558,22 @@
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -917,20 +912,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="36.875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -950,9 +945,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -970,7 +965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -990,7 +985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1010,25 +1005,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1037,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1053,14 +1048,14 @@
         <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1071,7 +1066,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1082,14 +1077,14 @@
         <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1103,7 +1098,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1114,14 +1109,14 @@
         <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1135,7 +1130,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1146,14 +1141,14 @@
         <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1167,21 +1162,21 @@
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>99</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1202,22 +1197,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="24.875" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1232,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>35</v>
@@ -1258,7 +1253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1429,309 +1424,309 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5">
+      <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5">
+      <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5">
+      <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5">
+      <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5">
+      <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5">
+      <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5">
+      <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="M13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1</v>
-      </c>
-      <c r="M14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5">
+      <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5">
+      <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="M16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.5">
+      <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5">
+      <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5">
+      <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C20">
         <v>2</v>
       </c>
@@ -1751,12 +1746,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>

--- a/protobuff/backup/Privilege/pvePrivilege.xlsx
+++ b/protobuff/backup/Privilege/pvePrivilege.xlsx
@@ -292,56 +292,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日封神台重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日封神台重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日万仙阵重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日万仙阵重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日无尽战火重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日无尽战火重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日聚宝之地重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日聚宝之地重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日炼气山谷重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日炼气山谷重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日生存幻境重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日生存幻境重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无尽战火可重置次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日封神台重置次数已用完，提高VIP等级可以增加重置次数。</t>
+  </si>
+  <si>
+    <t>今日万仙阵重置次数已用完，提高VIP等级可以增加重置次数。</t>
+  </si>
+  <si>
+    <t>今日无尽战火重置次数已用完，提高VIP等级可以增加重置次数。</t>
+  </si>
+  <si>
+    <t>今日聚宝之地重置次数已用完，提高VIP等级可以增加重置次数。</t>
+  </si>
+  <si>
+    <t>今日炼气山谷重置次数已用完，提高VIP等级可以增加重置次数。</t>
+  </si>
+  <si>
+    <t>今日生存幻境重置次数已用完，提高VIP等级可以增加重置次数。</t>
   </si>
   <si>
     <t>RefEnum(cs:Privilege.PvePrivilegeNames,java:com.rwproto.PrivilegeProtos.PvePrivilegeNames)</t>
@@ -913,7 +907,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1016,10 +1010,10 @@
         <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1048,10 +1042,10 @@
         <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -1077,10 +1071,10 @@
         <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1109,10 +1103,10 @@
         <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1141,10 +1135,10 @@
         <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1173,10 +1167,10 @@
         <v>99</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1232,7 +1226,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>35</v>

--- a/protobuff/backup/Privilege/pvePrivilege.xlsx
+++ b/protobuff/backup/Privilege/pvePrivilege.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\server\protobuff\backup\Privilege\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="480" windowWidth="30820" windowHeight="18140" tabRatio="500"/>
+    <workbookView xWindow="5355" yWindow="480" windowWidth="30825" windowHeight="18135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pvePrivilegeProperties" sheetId="3" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <author>dragon li</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>vip1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,26 +297,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今日封神台重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>今日封神台重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今日万仙阵重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>今日万仙阵重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今日无尽战火重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>今日无尽战火重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今日聚宝之地重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>今日聚宝之地重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今日炼气山谷重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>今日炼气山谷重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今日生存幻境重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>今日生存幻境重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,25 +349,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日封神台重置次数已用完，提高VIP等级可以增加重置次数。</t>
-  </si>
-  <si>
-    <t>今日万仙阵重置次数已用完，提高VIP等级可以增加重置次数。</t>
-  </si>
-  <si>
-    <t>今日无尽战火重置次数已用完，提高VIP等级可以增加重置次数。</t>
-  </si>
-  <si>
-    <t>今日聚宝之地重置次数已用完，提高VIP等级可以增加重置次数。</t>
-  </si>
-  <si>
-    <t>今日炼气山谷重置次数已用完，提高VIP等级可以增加重置次数。</t>
-  </si>
-  <si>
-    <t>今日生存幻境重置次数已用完，提高VIP等级可以增加重置次数。</t>
-  </si>
-  <si>
     <t>RefEnum(cs:Privilege.PvePrivilegeNames,java:com.rwproto.PrivilegeProtos.PvePrivilegeNames)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP8开启购买竞技场门票功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP8开启购买竞技场门票功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP6开启购买竞技场门票功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP7开启购买竞技场门票功能，充值可提升VIP等级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,6 +563,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="32">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -552,22 +580,21 @@
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -907,19 +934,19 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" customWidth="1"/>
-    <col min="5" max="5" width="36.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -939,7 +966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -959,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -979,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1010,14 +1037,14 @@
         <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1058,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1042,14 +1069,16 @@
         <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1060,7 +1089,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1071,14 +1100,16 @@
         <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1092,7 +1123,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1103,14 +1134,16 @@
         <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1124,7 +1157,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1135,14 +1168,16 @@
         <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1156,7 +1191,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1167,12 +1202,14 @@
         <v>99</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1192,21 +1229,21 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I11" sqref="I11:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1263,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>35</v>
@@ -1247,7 +1284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1394,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1418,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -1426,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1441,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -1449,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1464,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -1472,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1487,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
@@ -1495,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1510,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -1518,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1533,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
@@ -1541,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1556,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -1564,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1579,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -1587,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1602,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -1610,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1625,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1633,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1648,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1656,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1671,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1679,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1694,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1702,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1717,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -1725,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1740,12 +1777,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>

--- a/protobuff/backup/Privilege/pvePrivilege.xlsx
+++ b/protobuff/backup/Privilege/pvePrivilege.xlsx
@@ -15,7 +15,7 @@
     <sheet name="pvePrivilegeProperties" sheetId="3" r:id="rId1"/>
     <sheet name="pvePrivilege" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>vip1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,47 +297,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日封神台重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日封神台重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日万仙阵重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日万仙阵重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日无尽战火重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日无尽战火重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日聚宝之地重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日聚宝之地重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日炼气山谷重置次数已用完，{buyCharge}可以增加重置次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日炼气山谷重置次数已用完，大神，您已经无法再增加重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日生存幻境重置次数已用完，{buyCharge}可以增加重置次数。</t>
+    <t>无尽战火可重置次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefEnum(cs:Privilege.PvePrivilegeNames,java:com.rwproto.PrivilegeProtos.PvePrivilegeNames)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日无尽战火重置次数已用完，提升VIP等级可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日聚宝之地重置次数已用完，提升VIP等级可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日炼气山谷重置次数已用完，提升VIP等级可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日生存幻境重置次数已用完，提升VIP等级可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日万仙阵重置次数已用完，提升VIP等级可以增加重置次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP8开启重置万仙阵功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP8开启重置无尽战火功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP6开启重置聚宝之地功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP7开启重置炼气山谷功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP6开启重置生存幻境功能，充值可提升VIP等级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -345,27 +369,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无尽战火可重置次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefEnum(cs:Privilege.PvePrivilegeNames,java:com.rwproto.PrivilegeProtos.PvePrivilegeNames)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP8开启购买竞技场门票功能，充值可提升VIP等级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP8开启购买竞技场门票功能，充值可提升VIP等级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP6开启购买竞技场门票功能，充值可提升VIP等级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP7开启购买竞技场门票功能，充值可提升VIP等级。</t>
+    <t>今日封神台重置次数已用完，提升到VIP6可以增加1次重置次数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +938,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -968,7 +972,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -1037,10 +1041,10 @@
         <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1069,13 +1073,13 @@
         <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1100,13 +1104,13 @@
         <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1134,13 +1138,13 @@
         <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1168,13 +1172,13 @@
         <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1205,7 +1209,7 @@
         <v>79</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>85</v>
@@ -1229,13 +1233,13 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:M11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
@@ -1263,7 +1267,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>35</v>
@@ -1415,6 +1419,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -1438,6 +1445,9 @@
       <c r="B6" s="2"/>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>

--- a/protobuff/backup/Privilege/pvePrivilege.xlsx
+++ b/protobuff/backup/Privilege/pvePrivilege.xlsx
@@ -938,14 +938,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="55.75" customWidth="1"/>
     <col min="5" max="5" width="36.875" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1419,9 +1419,6 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -1445,9 +1442,6 @@
       <c r="B6" s="2"/>
       <c r="C6">
         <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
